--- a/figures/DAC/Hill_climbing_DataDriven.xlsx
+++ b/figures/DAC/Hill_climbing_DataDriven.xlsx
@@ -409,10 +409,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.973</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.2404933196300103</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="4">
@@ -427,10 +427,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.281</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="D8">
-        <v>0.7633451957295373</v>
+        <v>0.8535539215686274</v>
       </c>
     </row>
     <row r="9">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
+        <v>0.9545454545454545</v>
       </c>
     </row>
     <row r="10">
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.6539999999999999</v>
+        <v>0.9930000000000001</v>
       </c>
       <c r="D11">
-        <v>0.2071865443425077</v>
+        <v>0.9385699899295065</v>
       </c>
     </row>
     <row r="12">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.07300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>0.321917808219178</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="13">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.973</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.7595066803699897</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="15">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.281</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="D19">
-        <v>0.2366548042704626</v>
+        <v>0.1464460784313725</v>
       </c>
     </row>
     <row r="20">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="D20">
-        <v>0.7499999999999999</v>
+        <v>0.04545454545454545</v>
       </c>
     </row>
     <row r="21">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.6539999999999999</v>
+        <v>0.9930000000000001</v>
       </c>
       <c r="D22">
-        <v>0.7928134556574924</v>
+        <v>0.06143001007049344</v>
       </c>
     </row>
     <row r="23">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.07300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D23">
-        <v>0.6780821917808219</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
